--- a/data/trans_orig/P1433-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Dificultad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5431</v>
+        <v>5492</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001047775486437023</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.005202048517436734</v>
+        <v>0.005261140258433459</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -763,19 +763,19 @@
         <v>3201</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8209</v>
+        <v>8997</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002861901481208023</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0008683992023829609</v>
+        <v>0.0008740459058085436</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007338386537006745</v>
+        <v>0.008042347435798661</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -787,16 +787,16 @@
         <v>1100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10630</v>
+        <v>10671</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001986177826292315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0005085210142164627</v>
+        <v>0.0005087315606603716</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004915594448269357</v>
+        <v>0.004934485410500168</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>1042841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1038504</v>
+        <v>1038443</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1043935</v>
@@ -822,7 +822,7 @@
         <v>0.998952224513563</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9947979514825633</v>
+        <v>0.9947388597415665</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,19 +834,19 @@
         <v>1115452</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1110444</v>
+        <v>1109656</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1117682</v>
+        <v>1117675</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.997138098518792</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9926616134629932</v>
+        <v>0.9919576525642004</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.999131600797617</v>
+        <v>0.9991259540941915</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2004</v>
@@ -855,7 +855,7 @@
         <v>2158293</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2151958</v>
+        <v>2151917</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>2161488</v>
@@ -864,10 +864,10 @@
         <v>0.9980138221737077</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9950844055517306</v>
+        <v>0.9950655145894998</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9994914789857836</v>
+        <v>0.9994912684393397</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5344</v>
+        <v>4852</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0009148144812021463</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005469523468728413</v>
+        <v>0.004965876007282957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -980,19 +980,19 @@
         <v>4114</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>976</v>
+        <v>1076</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9557</v>
+        <v>10233</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003773215160153093</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0008950829519919579</v>
+        <v>0.0009865267514143144</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008765807412593474</v>
+        <v>0.009386297201070787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -1001,19 +1001,19 @@
         <v>5008</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1969</v>
+        <v>1918</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11309</v>
+        <v>11277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002422260779951745</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.000952309330524564</v>
+        <v>0.0009279047882972651</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005470112440937042</v>
+        <v>0.005454957876444714</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>976179</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>971729</v>
+        <v>972221</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>977073</v>
@@ -1039,7 +1039,7 @@
         <v>0.9990851855187979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9945304765312716</v>
+        <v>0.9950341239927174</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         <v>1086141</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1080698</v>
+        <v>1080022</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1089279</v>
+        <v>1089179</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9962267848398469</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9912341925874065</v>
+        <v>0.9906137027989291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9991049170480081</v>
+        <v>0.9990134732485857</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1936</v>
@@ -1072,19 +1072,19 @@
         <v>2062320</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2056019</v>
+        <v>2056051</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2065359</v>
+        <v>2065410</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9975777392200482</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9945298875590629</v>
+        <v>0.9945450421235551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9990476906694754</v>
+        <v>0.9990720952117028</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6394</v>
+        <v>5592</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002072026273553065</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007223955701747763</v>
+        <v>0.006317747450814314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1197,19 +1197,19 @@
         <v>2991</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8022</v>
+        <v>9207</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003415040849053712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00102416361315635</v>
+        <v>0.00102982125685079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009159692975551272</v>
+        <v>0.01051276880120282</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1218,19 +1218,19 @@
         <v>4825</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1842</v>
+        <v>1788</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10803</v>
+        <v>10861</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002739979721399327</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001046029724127587</v>
+        <v>0.001015579330708756</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006134803026809334</v>
+        <v>0.00616790860214527</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>883281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>878721</v>
+        <v>879523</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>885115</v>
@@ -1256,7 +1256,7 @@
         <v>0.9979279737264469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9927760442982522</v>
+        <v>0.9936822525491857</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>872805</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>867774</v>
+        <v>866589</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>874899</v>
+        <v>874894</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9965849591509462</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9908403070244488</v>
+        <v>0.9894872311987971</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9989758363868436</v>
+        <v>0.9989701787431492</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1646</v>
@@ -1289,19 +1289,19 @@
         <v>1756086</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1750108</v>
+        <v>1750050</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1759069</v>
+        <v>1759123</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9972600202786007</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9938651969731883</v>
+        <v>0.9938320913978547</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9989539702758724</v>
+        <v>0.9989844206692913</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4825</v>
+        <v>5019</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001882454735510285</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009592695792770164</v>
+        <v>0.009977765074277089</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5175</v>
+        <v>5290</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0009907499057333639</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005414186263610947</v>
+        <v>0.005535338524934888</v>
       </c>
     </row>
     <row r="14">
@@ -1456,7 +1456,7 @@
         <v>502076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498198</v>
+        <v>498004</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -1465,7 +1465,7 @@
         <v>0.9981175452644897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9904073042072299</v>
+        <v>0.9900222349257237</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>954811</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>950583</v>
+        <v>950468</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>955758</v>
@@ -1499,7 +1499,7 @@
         <v>0.9990092500942667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9945858137363888</v>
+        <v>0.9944646614750647</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1594,19 +1594,19 @@
         <v>4769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1837</v>
+        <v>1798</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11432</v>
+        <v>10927</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001398751946053529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0005388739249075512</v>
+        <v>0.0005272717949618318</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00335344757328076</v>
+        <v>0.00320520595833488</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1615,19 +1615,19 @@
         <v>10306</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5165</v>
+        <v>5091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18815</v>
+        <v>18361</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002913440773480185</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001460162749322627</v>
+        <v>0.001439168306291134</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005318845376785884</v>
+        <v>0.005190485778000069</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1636,19 +1636,19 @@
         <v>15075</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8943</v>
+        <v>9381</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24137</v>
+        <v>25557</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002170083481945554</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001287435871124361</v>
+        <v>0.001350496643317938</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.003474608724271883</v>
+        <v>0.003679096131871247</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>3404376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3397713</v>
+        <v>3398218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3407308</v>
+        <v>3407347</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9986012480539465</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9966465524267195</v>
+        <v>0.9967947940416658</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9994611260750924</v>
+        <v>0.9994727282050382</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3270</v>
@@ -1686,19 +1686,19 @@
         <v>3527133</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3518624</v>
+        <v>3519078</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3532274</v>
+        <v>3532348</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9970865592265198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.994681154623214</v>
+        <v>0.9948095142219998</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9985398372506773</v>
+        <v>0.9985608316937089</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6458</v>
@@ -1707,19 +1707,19 @@
         <v>6931510</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6922448</v>
+        <v>6921028</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6937642</v>
+        <v>6937204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9978299165180544</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9965253912757281</v>
+        <v>0.9963209038681288</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9987125641288757</v>
+        <v>0.998649503356682</v>
       </c>
     </row>
     <row r="18">
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6838</v>
+        <v>7160</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001619509877673806</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005428536858259978</v>
+        <v>0.005684650225731257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7139</v>
+        <v>7150</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0008543755202391498</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00299018716036956</v>
+        <v>0.002994813733320572</v>
       </c>
     </row>
     <row r="5">
@@ -2127,7 +2127,7 @@
         <v>1257521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1252723</v>
+        <v>1252401</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>1259561</v>
@@ -2136,7 +2136,7 @@
         <v>0.9983804901223262</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9945714631417408</v>
+        <v>0.9943153497742687</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>2385518</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2380419</v>
+        <v>2380408</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>2387558</v>
@@ -2157,7 +2157,7 @@
         <v>0.9991456244797609</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9970098128396304</v>
+        <v>0.9970051862666794</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4466</v>
+        <v>4484</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0009796007453282472</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.004914037192442412</v>
+        <v>0.004933859866944591</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4818</v>
+        <v>4472</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0004648281708672937</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.002515343443116487</v>
+        <v>0.002334897934194149</v>
       </c>
     </row>
     <row r="8">
@@ -2315,7 +2315,7 @@
         <v>907935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>904359</v>
+        <v>904341</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>908825</v>
@@ -2324,7 +2324,7 @@
         <v>0.9990203992546718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9950859628075576</v>
+        <v>0.9950661401330554</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>1914410</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1910482</v>
+        <v>1910828</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1915300</v>
@@ -2358,7 +2358,7 @@
         <v>0.9995351718291327</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9974846565568849</v>
+        <v>0.9976651020658059</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6533</v>
+        <v>6410</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003915024917900456</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01289307576774453</v>
+        <v>0.01265012619366879</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6190</v>
+        <v>7094</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001990917035394597</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006212007397700989</v>
+        <v>0.007119731851352857</v>
       </c>
     </row>
     <row r="14">
@@ -2685,7 +2685,7 @@
         <v>504717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500168</v>
+        <v>500291</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -2694,7 +2694,7 @@
         <v>0.9960849750820996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9871069242322551</v>
+        <v>0.9873498738063323</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>994414</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>990208</v>
+        <v>989304</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>996398</v>
@@ -2728,7 +2728,7 @@
         <v>0.9980090829646054</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9937879926022989</v>
+        <v>0.9928802681486468</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -2826,16 +2826,16 @@
         <v>890</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8029</v>
+        <v>7574</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0008535168227956074</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0002644498082295228</v>
+        <v>0.0002643974619599167</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.002384472950001069</v>
+        <v>0.002249198790068139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7123</v>
+        <v>7674</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0005783927285990668</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.002019731382269629</v>
+        <v>0.002175930675061929</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -2865,19 +2865,19 @@
         <v>4914</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1931</v>
+        <v>1820</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11784</v>
+        <v>10859</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.000712771964688752</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0002801320398629221</v>
+        <v>0.0002640604069616752</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.001709235583957276</v>
+        <v>0.001575188041092918</v>
       </c>
     </row>
     <row r="17">
@@ -2894,7 +2894,7 @@
         <v>3364408</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3359253</v>
+        <v>3359708</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>3366392</v>
@@ -2903,10 +2903,10 @@
         <v>0.9991464831772044</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.997615527049999</v>
+        <v>0.997750801209932</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9997355501917704</v>
+        <v>0.9997356025380401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3320</v>
@@ -2915,7 +2915,7 @@
         <v>3524752</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3519669</v>
+        <v>3519118</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>3526792</v>
@@ -2924,7 +2924,7 @@
         <v>0.9994216072714009</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9979802686177304</v>
+        <v>0.9978240693249397</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -2936,19 +2936,19 @@
         <v>6889161</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6882291</v>
+        <v>6883216</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6892144</v>
+        <v>6892255</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9992872280353112</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9982907644160428</v>
+        <v>0.9984248119589071</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9997198679601371</v>
+        <v>0.9997359395930383</v>
       </c>
     </row>
     <row r="18">
